--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS139_VerMaintenancePKS.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS139_VerMaintenancePKS.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132E543-F998-4F20-B1F8-C8A255B72C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9884C2-1A01-452D-AA86-2CBB9C6C2B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS139-001" sheetId="3" r:id="rId1"/>
+    <sheet name="DPLKKPS139-002" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>RUN</t>
   </si>
@@ -85,45 +86,71 @@
     <t>DPLKKPS139-001</t>
   </si>
   <si>
-    <t>Verifikasi - Maintenance Perjanjian Kerja Sama</t>
-  </si>
-  <si>
-    <t>Proses Verifikasi Maintenance PKS Berhasil</t>
-  </si>
-  <si>
-    <t>KEP-011 DISETUJUI</t>
-  </si>
-  <si>
     <t>Verifikasi Maintenance Perjanjian Kerja Sama</t>
   </si>
   <si>
     <t>STATUS_VERIFIKASI</t>
   </si>
   <si>
-    <t>M03220800000027</t>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t>ADMIN_FEE</t>
+  </si>
+  <si>
+    <t>MGMT_FEE</t>
+  </si>
+  <si>
+    <t>KETERANGAN_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>DPLKKPS139-002</t>
+  </si>
+  <si>
+    <t>M03220900000003</t>
+  </si>
+  <si>
+    <t>Verifikasi - Maintenance Perjanjian Kerja Sama Dikembalikan ke Register</t>
+  </si>
+  <si>
+    <t>Data Verifikasi Maintenance PKS Berhasil dikembalikan ke Resgiter</t>
   </si>
   <si>
     <t>Username : 31816;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-No Register : M03220800000027;
+No Register : M03220900000003;
+Status Verifikasi : 0 : Kembalikan ke Register;
+Keterangan : KEP-012</t>
+  </si>
+  <si>
+    <t>KEP-012</t>
+  </si>
+  <si>
+    <t>Dikembalikan Ke Register</t>
+  </si>
+  <si>
+    <t>Verifikasi - Maintenance Perjanjian Kerja Sama Disetujui</t>
+  </si>
+  <si>
+    <t>Proses Verifikasi Maintenance PKS berhasil Disetujui</t>
+  </si>
+  <si>
+    <t>Username : 31816;
+Password : bni1234;
+Role : 09 - Penyelia Settlement;
+No Register : M03220800000024;
 Status Verifikasi : 1 : Setuju;
-Keterangan : KEP-011 DISETUJUI</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t>ADMIN_FEE</t>
-  </si>
-  <si>
-    <t>MGMT_FEE</t>
-  </si>
-  <si>
-    <t>KETERANGAN_VERIFIKASI</t>
+Keterangan : KEP-012 Disetujui</t>
+  </si>
+  <si>
+    <t>M03220800000024</t>
+  </si>
+  <si>
+    <t>KEP-012 Disetujui</t>
   </si>
 </sst>
 </file>
@@ -199,13 +226,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,18 +542,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
@@ -539,7 +566,7 @@
     <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -550,7 +577,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -587,39 +614,39 @@
         <v>18</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>27</v>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -640,27 +667,27 @@
         <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
@@ -680,4 +707,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C189252-B4AE-4E49-99F6-0F1F900078DB}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3">
+        <v>31816</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS139_VerMaintenancePKS.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS139_VerMaintenancePKS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9884C2-1A01-452D-AA86-2CBB9C6C2B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6DFB8F-62EF-459D-8E65-61E777E50FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,21 +110,10 @@
     <t>DPLKKPS139-002</t>
   </si>
   <si>
-    <t>M03220900000003</t>
-  </si>
-  <si>
     <t>Verifikasi - Maintenance Perjanjian Kerja Sama Dikembalikan ke Register</t>
   </si>
   <si>
     <t>Data Verifikasi Maintenance PKS Berhasil dikembalikan ke Resgiter</t>
-  </si>
-  <si>
-    <t>Username : 31816;
-Password : bni1234;
-Role : 09 - Penyelia Settlement;
-No Register : M03220900000003;
-Status Verifikasi : 0 : Kembalikan ke Register;
-Keterangan : KEP-012</t>
   </si>
   <si>
     <t>KEP-012</t>
@@ -151,6 +140,17 @@
   </si>
   <si>
     <t>KEP-012 Disetujui</t>
+  </si>
+  <si>
+    <t>M03220800000029</t>
+  </si>
+  <si>
+    <t>Username : 31816;
+Password : bni1234;
+Role : 09 - Penyelia Settlement;
+No Register : M03220800000029;
+Status Verifikasi : 0 : Kembalikan ke Register;
+Keterangan : KEP-012</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,13 +640,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -670,7 +670,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C189252-B4AE-4E49-99F6-0F1F900078DB}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,13 +809,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -839,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>24</v>
